--- a/cuits.xlsx
+++ b/cuits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="1" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
